--- a/JG14S15P08/trunk/Documentation/ProjectDocumentation/Time_recording--PRO-2.xlsx
+++ b/JG14S15P08/trunk/Documentation/ProjectDocumentation/Time_recording--PRO-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="D2EB" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="12760" windowHeight="16840" tabRatio="920" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="16840" tabRatio="920"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="114">
   <si>
     <t>Projektname</t>
   </si>
@@ -62,22 +62,10 @@
     <t>Dauer</t>
   </si>
   <si>
-    <t>Literaturrecherche</t>
-  </si>
-  <si>
-    <t>Architekturdesign</t>
-  </si>
-  <si>
-    <t>Mitarbeitersitzung</t>
-  </si>
-  <si>
     <t>Summe</t>
   </si>
   <si>
     <t>Nr</t>
-  </si>
-  <si>
-    <t>NN</t>
   </si>
   <si>
     <t xml:space="preserve">Stundenzettel </t>
@@ -138,15 +126,6 @@
   </si>
   <si>
     <t>Anmerkung</t>
-  </si>
-  <si>
-    <t>Programmieren</t>
-  </si>
-  <si>
-    <t>Client-Protokoll</t>
-  </si>
-  <si>
-    <t>Client-GUI</t>
   </si>
   <si>
     <t>Differenz (Plan)</t>
@@ -344,7 +323,55 @@
     <t>22.06 - 28.06.2015</t>
   </si>
   <si>
-    <t>29.06 - 05.06.2015</t>
+    <t>Konzept</t>
+  </si>
+  <si>
+    <t>Mockups</t>
+  </si>
+  <si>
+    <t>Spezifikationen</t>
+  </si>
+  <si>
+    <t>Projekt  aufsetzen</t>
+  </si>
+  <si>
+    <t>Coding start</t>
+  </si>
+  <si>
+    <t>GIT, GITHub, Probleme...</t>
+  </si>
+  <si>
+    <t>Konzept, Klassen, Milestones</t>
+  </si>
+  <si>
+    <t>start implement GPS &amp; BLE</t>
+  </si>
+  <si>
+    <t>29.06 - 05.07.2015</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>Umstrukturierung BLE</t>
+  </si>
+  <si>
+    <t>Umstrukturierung GPS</t>
+  </si>
+  <si>
+    <t>Scan Activity</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Tests</t>
   </si>
 </sst>
 </file>
@@ -1053,14 +1080,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1562,12 +1619,54 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="35">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -1909,8 +2008,8 @@
   </sheetPr>
   <dimension ref="B2:AG55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1934,7 +2033,7 @@
       <c r="C2" s="131"/>
       <c r="D2" s="131"/>
       <c r="E2" s="132" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F2" s="132"/>
       <c r="G2" s="132"/>
@@ -1950,7 +2049,7 @@
     </row>
     <row r="3" spans="2:33" ht="26" customHeight="1">
       <c r="B3" s="131" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="131"/>
       <c r="D3" s="131"/>
@@ -1971,7 +2070,7 @@
     </row>
     <row r="4" spans="2:33" ht="26" customHeight="1">
       <c r="B4" s="123" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C4" s="123"/>
       <c r="D4" s="123"/>
@@ -1980,7 +2079,7 @@
       </c>
       <c r="F4" s="135"/>
       <c r="G4" s="95" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H4" s="95"/>
       <c r="I4" s="95"/>
@@ -2066,14 +2165,14 @@
       <c r="C8" s="123"/>
       <c r="D8" s="123"/>
       <c r="E8" s="27" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F8" s="28">
         <f>(E6/60)/E5</f>
         <v>4.166666666666667</v>
       </c>
       <c r="G8" s="95" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H8" s="95"/>
       <c r="I8" s="95"/>
@@ -2105,7 +2204,7 @@
     </row>
     <row r="10" spans="2:33" s="4" customFormat="1" ht="32.25" customHeight="1" thickTop="1">
       <c r="B10" s="125" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C10" s="126"/>
       <c r="D10" s="126"/>
@@ -2114,7 +2213,7 @@
       <c r="G10" s="127"/>
       <c r="H10" s="35"/>
       <c r="I10" s="136" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J10" s="137"/>
       <c r="K10" s="137"/>
@@ -2142,7 +2241,7 @@
     </row>
     <row r="11" spans="2:33" s="4" customFormat="1" ht="133.5" customHeight="1">
       <c r="B11" s="105" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" s="50"/>
       <c r="D11" s="119">
@@ -2150,17 +2249,17 @@
         <v>20</v>
       </c>
       <c r="E11" s="124" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F11" s="124" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="128" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H11" s="147"/>
       <c r="I11" s="143" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J11" s="49" t="str">
         <f>'dynamische Daten'!B2</f>
@@ -2184,7 +2283,7 @@
       </c>
       <c r="O11" s="49" t="str">
         <f>'dynamische Daten'!B7</f>
-        <v>29.06 - 05.06.2015</v>
+        <v>29.06 - 05.07.2015</v>
       </c>
       <c r="P11" s="49" t="str">
         <f>'dynamische Daten'!B8</f>
@@ -2243,13 +2342,13 @@
         <v>DD.MM - DD.MM.YYYY</v>
       </c>
       <c r="AD11" s="146" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE11" s="145" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AF11" s="145" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AG11" s="8"/>
     </row>
@@ -2263,64 +2362,64 @@
       <c r="H12" s="147"/>
       <c r="I12" s="144"/>
       <c r="J12" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="O12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="36" t="s">
+      <c r="P12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="36" t="s">
+      <c r="Q12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="R12" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" s="36" t="s">
-        <v>30</v>
-      </c>
       <c r="S12" s="36" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="T12" s="36" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U12" s="36" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="V12" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="W12" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="X12" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y12" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z12" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="W12" s="36" t="s">
+      <c r="AA12" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="X12" s="36" t="s">
+      <c r="AB12" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="Y12" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z12" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA12" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB12" s="36" t="s">
-        <v>87</v>
-      </c>
       <c r="AC12" s="36" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AD12" s="146"/>
       <c r="AE12" s="145"/>
@@ -2335,27 +2434,27 @@
       <c r="D13" s="109"/>
       <c r="E13" s="64">
         <f>IF(NOT(EXACT(B13,"----")),SUM(J13,IF(E3&gt;=2,K13,0),IF(E3&gt;=3,L13,0),IF(E3&gt;=4,M13,0),IF(E3&gt;=5,N13,0),IF(E3&gt;=6,O13,0),IF(E3&gt;=7,P13,0),IF(E3&gt;=8,Q13,0),IF(E3&gt;=9,R13,0),IF(E3&gt;=10,S13,0),IF(E3&gt;=11,T13,0),IF(E3&gt;=12,U13,0)),0)</f>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F13" s="67">
         <f>IF(NOT(EXACT(B13,"----")),SUM(J14,IF(E3&gt;=2,K14,0),IF(E3&gt;=3,L14,0),IF(E3&gt;=4,M14,0),IF(E3&gt;=5,N14,0),IF(E3&gt;=6,O14,0),IF(E3&gt;=7,P14,0),IF(E3&gt;=8,Q14,0),IF(E3&gt;=9,R14,0),IF(E3&gt;=10,S14,0),IF(E3&gt;=11,T14,0),IF(E3&gt;=12,U14,0)),0)</f>
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="G13" s="92">
         <f>F13-E13</f>
-        <v>-34</v>
+        <v>96</v>
       </c>
       <c r="H13" s="78"/>
       <c r="I13" s="37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J13" s="52">
         <f>'Std-A'!$C$13</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K13" s="52">
         <f>'Std-A'!$C$24</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L13" s="52">
         <f>'Std-A'!$C$35</f>
@@ -2395,7 +2494,7 @@
       </c>
       <c r="U13" s="53">
         <f>'Std-A'!$C$134</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="V13" s="53">
         <f>'Std-A'!$C$145</f>
@@ -2431,7 +2530,7 @@
       </c>
       <c r="AD13" s="56">
         <f t="shared" ref="AD13:AD22" si="0">SUM(J13:AC13)</f>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="72">
         <f>IF(NOT(EXACT(B13,"----")),$E$7,0)</f>
@@ -2439,7 +2538,7 @@
       </c>
       <c r="AF13" s="75">
         <f>AD14-AE13</f>
-        <v>-29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="12" customHeight="1">
@@ -2451,91 +2550,91 @@
       <c r="G14" s="93"/>
       <c r="H14" s="79"/>
       <c r="I14" s="38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J14" s="32">
         <f>'Std-A'!$C$12</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K14" s="32">
         <f>'Std-A'!$C$23</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="32">
         <f>'Std-A'!$C$34</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M14" s="32">
         <f>'Std-A'!$C$45</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N14" s="32">
         <f>'Std-A'!$C$56</f>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="O14" s="32">
         <f>'Std-A'!$C$67</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P14" s="32">
         <f>'Std-A'!$C$78</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="32">
         <f>'Std-A'!$C$89</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="32">
         <f>'Std-A'!$C$100</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="32">
         <f>'Std-A'!$C$111</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="32">
         <f>'Std-A'!$C$122</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="32">
         <f>'Std-A'!$C$133</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="32">
         <f>'Std-A'!$C$144</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="32">
         <f>'Std-A'!$C$155</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="32">
         <f>'Std-A'!$C$166</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="32">
         <f>'Std-A'!$C$177</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="32">
         <f>'Std-A'!$C$188</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="32">
         <f>'Std-A'!$C$199</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="32">
         <f>'Std-A'!$C$210</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="32">
         <f>'Std-A'!$C$221</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="33">
         <f>SUM(J14:AC14)</f>
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="AE14" s="73"/>
       <c r="AF14" s="71"/>
@@ -2553,87 +2652,87 @@
       </c>
       <c r="J15" s="29">
         <f>J14-J13</f>
-        <v>-10</v>
+        <v>6</v>
       </c>
       <c r="K15" s="29">
         <f>K14-K13</f>
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="L15" s="29">
         <f t="shared" ref="L15:U15" si="1">L14-L13</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M15" s="29">
         <f>M14-M13</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N15" s="29">
         <f>N14-N13</f>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="O15" s="29">
         <f>O14-O13</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P15" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="29">
         <f t="shared" si="1"/>
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="V15" s="29">
         <f t="shared" ref="V15:AC15" si="2">V14-V13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" s="29">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="29">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="29">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="29">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="29">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="29">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="29">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="30">
         <f t="shared" si="0"/>
-        <v>-26</v>
+        <v>96</v>
       </c>
       <c r="AE15" s="74"/>
       <c r="AF15" s="77"/>
@@ -2647,23 +2746,23 @@
       <c r="D16" s="98"/>
       <c r="E16" s="64">
         <f>IF(NOT(EXACT(B16,"----")),SUM(J16,IF(E3&gt;=2,K16,0),IF(E3&gt;=3,L16,0),IF(E3&gt;=4,M16,0),IF(E3&gt;=5,N16,0),IF(E3&gt;=6,O16,0),IF(E3&gt;=7,P16,0),IF(E3&gt;=8,Q16,0),IF(E3&gt;=9,R16,0),IF(E3&gt;=10,S16,0),IF(E3&gt;=11,T16,0),IF(E3&gt;=12,U16,0)),0)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F16" s="67">
         <f>IF(NOT(EXACT(B16,"----")),SUM(J17,IF(E3&gt;=2,K17,0),IF(E3&gt;=3,L17,0),IF(E3&gt;=4,M17,0),IF(E3&gt;=5,N17,0),IF(E3&gt;=6,O17,0),IF(E3&gt;=7,P17,0),IF(E3&gt;=8,Q17,0),IF(E3&gt;=9,R17,0),IF(E3&gt;=10,S17,0),IF(E3&gt;=11,T17,0),IF(E3&gt;=12,U17,0)),0)</f>
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="G16" s="92">
         <f>F16-E16</f>
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="H16" s="78"/>
       <c r="I16" s="37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J16" s="54">
         <f>'Std-B'!C13</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K16" s="54">
         <f>'Std-B'!C24</f>
@@ -2743,7 +2842,7 @@
       </c>
       <c r="AD16" s="56">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="72">
         <f>IF(NOT(EXACT(B16,"----")),$E$7,0)</f>
@@ -2751,7 +2850,7 @@
       </c>
       <c r="AF16" s="75">
         <f>AD17-AE16</f>
-        <v>-37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1">
@@ -2763,11 +2862,11 @@
       <c r="G17" s="93"/>
       <c r="H17" s="79"/>
       <c r="I17" s="38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J17" s="32">
         <f>'Std-B'!C12</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K17" s="32">
         <f>'Std-B'!C23</f>
@@ -2775,19 +2874,19 @@
       </c>
       <c r="L17" s="32">
         <f>'Std-B'!C34</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M17" s="32">
         <f>'Std-B'!C45</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N17" s="32">
         <f>'Std-B'!C56</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="O17" s="32">
         <f>'Std-B'!C67</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P17" s="32">
         <f>'Std-B'!C78</f>
@@ -2847,7 +2946,7 @@
       </c>
       <c r="AD17" s="33">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="AE17" s="73"/>
       <c r="AF17" s="71"/>
@@ -2865,7 +2964,7 @@
       </c>
       <c r="J18" s="29">
         <f t="shared" ref="J18:U18" si="3">J17-J16</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K18" s="29">
         <f t="shared" si="3"/>
@@ -2873,19 +2972,19 @@
       </c>
       <c r="L18" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M18" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N18" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="O18" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P18" s="29">
         <f t="shared" si="3"/>
@@ -2945,7 +3044,7 @@
       </c>
       <c r="AD18" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="AE18" s="74"/>
       <c r="AF18" s="76"/>
@@ -2971,7 +3070,7 @@
       </c>
       <c r="H19" s="78"/>
       <c r="I19" s="41" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J19" s="54">
         <f>'Std-C'!C13</f>
@@ -3075,7 +3174,7 @@
       <c r="G20" s="93"/>
       <c r="H20" s="79"/>
       <c r="I20" s="38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J20" s="32">
         <f>'Std-C'!C12</f>
@@ -3283,7 +3382,7 @@
       </c>
       <c r="H22" s="78"/>
       <c r="I22" s="37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J22" s="54">
         <f>'Std-D'!C13</f>
@@ -3387,7 +3486,7 @@
       <c r="G23" s="93"/>
       <c r="H23" s="79"/>
       <c r="I23" s="38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J23" s="32">
         <f>'Std-D'!C12</f>
@@ -3595,7 +3694,7 @@
       </c>
       <c r="H25" s="78"/>
       <c r="I25" s="41" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J25" s="54">
         <f>'Std-E'!C13</f>
@@ -3699,7 +3798,7 @@
       <c r="G26" s="93"/>
       <c r="H26" s="79"/>
       <c r="I26" s="38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J26" s="32">
         <f>'Std-E'!C12</f>
@@ -4469,7 +4568,7 @@
   <dimension ref="A1:E223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4483,7 +4582,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1" s="158" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="158"/>
       <c r="C1" s="158"/>
@@ -4509,7 +4608,7 @@
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="155" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B4" s="156"/>
       <c r="C4" s="156"/>
@@ -4521,7 +4620,7 @@
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>8</v>
@@ -4531,7 +4630,7 @@
       </c>
       <c r="D5" s="151"/>
       <c r="E5" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -4539,10 +4638,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="43">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="C6" s="170">
+        <v>300</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>4</v>
@@ -4553,11 +4652,11 @@
       <c r="A7" s="46">
         <v>2</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="43">
-        <v>0</v>
+      <c r="B7" s="171" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="172">
+        <v>60</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>4</v>
@@ -4568,12 +4667,8 @@
       <c r="A8" s="46">
         <v>3</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="43">
-        <v>60</v>
-      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="46" t="s">
         <v>4</v>
       </c>
@@ -4583,35 +4678,23 @@
       <c r="A9" s="46">
         <v>4</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="43">
-        <v>15</v>
-      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="170"/>
       <c r="D9" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="42" t="s">
-        <v>37</v>
-      </c>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
       <c r="A10" s="46">
         <v>5</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="43">
-        <v>30</v>
-      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>38</v>
-      </c>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1" thickBot="1">
       <c r="A11" s="48">
@@ -4626,12 +4709,12 @@
     </row>
     <row r="12" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A12" s="159" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="159"/>
       <c r="C12" s="25">
         <f>ROUND((SUM(C6:C11)/60),0)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D12" s="153" t="s">
         <v>5</v>
@@ -4640,11 +4723,11 @@
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1">
       <c r="A13" s="160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="160"/>
       <c r="C13" s="62">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D13" s="161" t="s">
         <v>5</v>
@@ -4660,7 +4743,7 @@
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
       <c r="A15" s="155" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B15" s="156"/>
       <c r="C15" s="156"/>
@@ -4672,7 +4755,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>8</v>
@@ -4682,7 +4765,7 @@
       </c>
       <c r="D16" s="151"/>
       <c r="E16" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -4690,9 +4773,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="42"/>
-      <c r="C17" s="43">
-        <v>60</v>
-      </c>
+      <c r="C17" s="43"/>
       <c r="D17" s="46" t="s">
         <v>4</v>
       </c>
@@ -4755,12 +4836,12 @@
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A23" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23" s="157"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="153" t="s">
         <v>5</v>
@@ -4769,11 +4850,11 @@
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A24" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" s="149"/>
       <c r="C24" s="63">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D24" s="148" t="s">
         <v>5</v>
@@ -4789,7 +4870,7 @@
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1">
       <c r="A26" s="155" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26" s="156"/>
       <c r="C26" s="156"/>
@@ -4801,7 +4882,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>8</v>
@@ -4811,16 +4892,18 @@
       </c>
       <c r="D27" s="151"/>
       <c r="E27" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
       <c r="A28" s="46">
         <v>1</v>
       </c>
-      <c r="B28" s="42"/>
+      <c r="B28" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="C28" s="43">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="D28" s="46" t="s">
         <v>4</v>
@@ -4831,8 +4914,12 @@
       <c r="A29" s="46">
         <v>2</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
+      <c r="B29" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="43">
+        <v>240</v>
+      </c>
       <c r="D29" s="46" t="s">
         <v>4</v>
       </c>
@@ -4842,8 +4929,12 @@
       <c r="A30" s="46">
         <v>3</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="43">
+        <v>120</v>
+      </c>
       <c r="D30" s="46" t="s">
         <v>4</v>
       </c>
@@ -4853,8 +4944,12 @@
       <c r="A31" s="46">
         <v>4</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="43">
+        <v>360</v>
+      </c>
       <c r="D31" s="46" t="s">
         <v>4</v>
       </c>
@@ -4864,8 +4959,12 @@
       <c r="A32" s="46">
         <v>5</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
+      <c r="B32" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="43">
+        <v>180</v>
+      </c>
       <c r="D32" s="46" t="s">
         <v>4</v>
       </c>
@@ -4884,12 +4983,12 @@
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A34" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B34" s="157"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D34" s="153" t="s">
         <v>5</v>
@@ -4898,7 +4997,7 @@
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A35" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B35" s="149"/>
       <c r="C35" s="63">
@@ -4918,7 +5017,7 @@
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1">
       <c r="A37" s="155" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B37" s="156"/>
       <c r="C37" s="156"/>
@@ -4930,7 +5029,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>8</v>
@@ -4940,16 +5039,18 @@
       </c>
       <c r="D38" s="151"/>
       <c r="E38" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
       <c r="A39" s="46">
         <v>1</v>
       </c>
-      <c r="B39" s="42"/>
+      <c r="B39" s="42" t="s">
+        <v>107</v>
+      </c>
       <c r="C39" s="43">
-        <v>60</v>
+        <v>1200</v>
       </c>
       <c r="D39" s="46" t="s">
         <v>4</v>
@@ -5013,12 +5114,12 @@
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A45" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B45" s="157"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D45" s="153" t="s">
         <v>5</v>
@@ -5027,7 +5128,7 @@
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A46" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B46" s="149"/>
       <c r="C46" s="63">
@@ -5047,7 +5148,7 @@
     </row>
     <row r="48" spans="1:5" ht="18" customHeight="1">
       <c r="A48" s="155" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B48" s="156"/>
       <c r="C48" s="156"/>
@@ -5059,7 +5160,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>8</v>
@@ -5069,16 +5170,18 @@
       </c>
       <c r="D49" s="151"/>
       <c r="E49" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
       <c r="A50" s="46">
         <v>1</v>
       </c>
-      <c r="B50" s="42"/>
+      <c r="B50" s="42" t="s">
+        <v>108</v>
+      </c>
       <c r="C50" s="43">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="D50" s="46" t="s">
         <v>4</v>
@@ -5089,8 +5192,12 @@
       <c r="A51" s="46">
         <v>2</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="43"/>
+      <c r="B51" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="43">
+        <v>300</v>
+      </c>
       <c r="D51" s="46" t="s">
         <v>4</v>
       </c>
@@ -5100,8 +5207,12 @@
       <c r="A52" s="46">
         <v>3</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="43"/>
+      <c r="B52" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="43">
+        <v>120</v>
+      </c>
       <c r="D52" s="46" t="s">
         <v>4</v>
       </c>
@@ -5142,12 +5253,12 @@
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A56" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B56" s="157"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D56" s="153" t="s">
         <v>5</v>
@@ -5156,7 +5267,7 @@
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A57" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B57" s="149"/>
       <c r="C57" s="63">
@@ -5176,19 +5287,19 @@
     </row>
     <row r="59" spans="1:5" ht="18" customHeight="1">
       <c r="A59" s="155" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B59" s="156"/>
       <c r="C59" s="156"/>
       <c r="D59" s="156"/>
       <c r="E59" s="34" t="str">
         <f>'dynamische Daten'!$B$7</f>
-        <v>29.06 - 05.06.2015</v>
+        <v>29.06 - 05.07.2015</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>8</v>
@@ -5198,16 +5309,18 @@
       </c>
       <c r="D60" s="151"/>
       <c r="E60" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
       <c r="A61" s="46">
         <v>1</v>
       </c>
-      <c r="B61" s="42"/>
+      <c r="B61" s="42" t="s">
+        <v>106</v>
+      </c>
       <c r="C61" s="43">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="D61" s="46" t="s">
         <v>4</v>
@@ -5271,12 +5384,12 @@
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A67" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B67" s="157"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D67" s="153" t="s">
         <v>5</v>
@@ -5285,7 +5398,7 @@
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A68" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B68" s="149"/>
       <c r="C68" s="63">
@@ -5305,7 +5418,7 @@
     </row>
     <row r="70" spans="1:5" ht="18" customHeight="1">
       <c r="A70" s="155" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B70" s="156"/>
       <c r="C70" s="156"/>
@@ -5317,7 +5430,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>8</v>
@@ -5327,7 +5440,7 @@
       </c>
       <c r="D71" s="151"/>
       <c r="E71" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -5335,9 +5448,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="42"/>
-      <c r="C72" s="43">
-        <v>60</v>
-      </c>
+      <c r="C72" s="43"/>
       <c r="D72" s="46" t="s">
         <v>4</v>
       </c>
@@ -5400,12 +5511,12 @@
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A78" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B78" s="157"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" s="153" t="s">
         <v>5</v>
@@ -5414,7 +5525,7 @@
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A79" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B79" s="149"/>
       <c r="C79" s="63">
@@ -5434,7 +5545,7 @@
     </row>
     <row r="81" spans="1:5" ht="18" customHeight="1">
       <c r="A81" s="155" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B81" s="156"/>
       <c r="C81" s="156"/>
@@ -5446,7 +5557,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>8</v>
@@ -5456,7 +5567,7 @@
       </c>
       <c r="D82" s="151"/>
       <c r="E82" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -5464,9 +5575,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="42"/>
-      <c r="C83" s="43">
-        <v>60</v>
-      </c>
+      <c r="C83" s="43"/>
       <c r="D83" s="46" t="s">
         <v>4</v>
       </c>
@@ -5529,12 +5638,12 @@
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A89" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B89" s="157"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" s="153" t="s">
         <v>5</v>
@@ -5543,7 +5652,7 @@
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A90" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B90" s="149"/>
       <c r="C90" s="63">
@@ -5563,7 +5672,7 @@
     </row>
     <row r="92" spans="1:5" ht="18" customHeight="1">
       <c r="A92" s="155" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B92" s="156"/>
       <c r="C92" s="156"/>
@@ -5575,7 +5684,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>8</v>
@@ -5585,7 +5694,7 @@
       </c>
       <c r="D93" s="151"/>
       <c r="E93" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -5593,9 +5702,7 @@
         <v>1</v>
       </c>
       <c r="B94" s="42"/>
-      <c r="C94" s="43">
-        <v>60</v>
-      </c>
+      <c r="C94" s="43"/>
       <c r="D94" s="46" t="s">
         <v>4</v>
       </c>
@@ -5658,12 +5765,12 @@
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A100" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B100" s="157"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" s="153" t="s">
         <v>5</v>
@@ -5672,7 +5779,7 @@
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A101" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B101" s="149"/>
       <c r="C101" s="63">
@@ -5692,7 +5799,7 @@
     </row>
     <row r="103" spans="1:5" ht="18" customHeight="1">
       <c r="A103" s="155" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B103" s="156"/>
       <c r="C103" s="156"/>
@@ -5704,7 +5811,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>8</v>
@@ -5714,7 +5821,7 @@
       </c>
       <c r="D104" s="151"/>
       <c r="E104" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -5722,9 +5829,7 @@
         <v>1</v>
       </c>
       <c r="B105" s="42"/>
-      <c r="C105" s="43">
-        <v>60</v>
-      </c>
+      <c r="C105" s="43"/>
       <c r="D105" s="46" t="s">
         <v>4</v>
       </c>
@@ -5787,12 +5892,12 @@
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A111" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B111" s="157"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" s="153" t="s">
         <v>5</v>
@@ -5801,7 +5906,7 @@
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A112" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B112" s="149"/>
       <c r="C112" s="63">
@@ -5821,7 +5926,7 @@
     </row>
     <row r="114" spans="1:5" ht="18" customHeight="1">
       <c r="A114" s="155" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B114" s="156"/>
       <c r="C114" s="156"/>
@@ -5833,7 +5938,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B115" s="19" t="s">
         <v>8</v>
@@ -5843,7 +5948,7 @@
       </c>
       <c r="D115" s="151"/>
       <c r="E115" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -5851,9 +5956,7 @@
         <v>1</v>
       </c>
       <c r="B116" s="42"/>
-      <c r="C116" s="43">
-        <v>60</v>
-      </c>
+      <c r="C116" s="43"/>
       <c r="D116" s="46" t="s">
         <v>4</v>
       </c>
@@ -5916,12 +6019,12 @@
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A122" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B122" s="157"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" s="153" t="s">
         <v>5</v>
@@ -5930,7 +6033,7 @@
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A123" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B123" s="149"/>
       <c r="C123" s="63">
@@ -5950,7 +6053,7 @@
     </row>
     <row r="125" spans="1:5" ht="18" customHeight="1">
       <c r="A125" s="155" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B125" s="156"/>
       <c r="C125" s="156"/>
@@ -5962,7 +6065,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>8</v>
@@ -5972,7 +6075,7 @@
       </c>
       <c r="D126" s="151"/>
       <c r="E126" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -5980,9 +6083,7 @@
         <v>1</v>
       </c>
       <c r="B127" s="42"/>
-      <c r="C127" s="43">
-        <v>60</v>
-      </c>
+      <c r="C127" s="43"/>
       <c r="D127" s="46" t="s">
         <v>4</v>
       </c>
@@ -6045,12 +6146,12 @@
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A133" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B133" s="157"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133" s="153" t="s">
         <v>5</v>
@@ -6059,11 +6160,11 @@
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A134" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B134" s="149"/>
       <c r="C134" s="63">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D134" s="148" t="s">
         <v>5</v>
@@ -6079,7 +6180,7 @@
     </row>
     <row r="136" spans="1:5" ht="18" customHeight="1">
       <c r="A136" s="155" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B136" s="156"/>
       <c r="C136" s="156"/>
@@ -6091,7 +6192,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>8</v>
@@ -6101,7 +6202,7 @@
       </c>
       <c r="D137" s="151"/>
       <c r="E137" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -6109,9 +6210,7 @@
         <v>1</v>
       </c>
       <c r="B138" s="42"/>
-      <c r="C138" s="43">
-        <v>60</v>
-      </c>
+      <c r="C138" s="43"/>
       <c r="D138" s="46" t="s">
         <v>4</v>
       </c>
@@ -6174,12 +6273,12 @@
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A144" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B144" s="157"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144" s="153" t="s">
         <v>5</v>
@@ -6188,7 +6287,7 @@
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A145" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B145" s="149"/>
       <c r="C145" s="63">
@@ -6208,7 +6307,7 @@
     </row>
     <row r="147" spans="1:5" ht="18" customHeight="1">
       <c r="A147" s="155" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B147" s="156"/>
       <c r="C147" s="156"/>
@@ -6220,7 +6319,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>8</v>
@@ -6230,7 +6329,7 @@
       </c>
       <c r="D148" s="151"/>
       <c r="E148" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -6238,9 +6337,7 @@
         <v>1</v>
       </c>
       <c r="B149" s="42"/>
-      <c r="C149" s="43">
-        <v>60</v>
-      </c>
+      <c r="C149" s="43"/>
       <c r="D149" s="46" t="s">
         <v>4</v>
       </c>
@@ -6303,12 +6400,12 @@
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A155" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B155" s="157"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" s="153" t="s">
         <v>5</v>
@@ -6317,7 +6414,7 @@
     </row>
     <row r="156" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
       <c r="A156" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B156" s="149"/>
       <c r="C156" s="63">
@@ -6337,7 +6434,7 @@
     </row>
     <row r="158" spans="1:5" ht="18" customHeight="1">
       <c r="A158" s="155" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B158" s="156"/>
       <c r="C158" s="156"/>
@@ -6349,7 +6446,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>8</v>
@@ -6359,7 +6456,7 @@
       </c>
       <c r="D159" s="151"/>
       <c r="E159" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -6367,9 +6464,7 @@
         <v>1</v>
       </c>
       <c r="B160" s="42"/>
-      <c r="C160" s="43">
-        <v>60</v>
-      </c>
+      <c r="C160" s="43"/>
       <c r="D160" s="46" t="s">
         <v>4</v>
       </c>
@@ -6432,12 +6527,12 @@
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A166" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B166" s="157"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166" s="153" t="s">
         <v>5</v>
@@ -6446,7 +6541,7 @@
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A167" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B167" s="149"/>
       <c r="C167" s="63">
@@ -6466,7 +6561,7 @@
     </row>
     <row r="169" spans="1:5" ht="18" customHeight="1">
       <c r="A169" s="155" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B169" s="156"/>
       <c r="C169" s="156"/>
@@ -6478,7 +6573,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B170" s="19" t="s">
         <v>8</v>
@@ -6488,7 +6583,7 @@
       </c>
       <c r="D170" s="151"/>
       <c r="E170" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -6496,9 +6591,7 @@
         <v>1</v>
       </c>
       <c r="B171" s="42"/>
-      <c r="C171" s="43">
-        <v>60</v>
-      </c>
+      <c r="C171" s="43"/>
       <c r="D171" s="46" t="s">
         <v>4</v>
       </c>
@@ -6561,12 +6654,12 @@
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A177" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B177" s="157"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177" s="153" t="s">
         <v>5</v>
@@ -6575,7 +6668,7 @@
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A178" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B178" s="149"/>
       <c r="C178" s="63">
@@ -6595,7 +6688,7 @@
     </row>
     <row r="180" spans="1:5" ht="18" customHeight="1">
       <c r="A180" s="155" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B180" s="156"/>
       <c r="C180" s="156"/>
@@ -6607,7 +6700,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B181" s="19" t="s">
         <v>8</v>
@@ -6617,7 +6710,7 @@
       </c>
       <c r="D181" s="151"/>
       <c r="E181" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -6625,9 +6718,7 @@
         <v>1</v>
       </c>
       <c r="B182" s="42"/>
-      <c r="C182" s="43">
-        <v>60</v>
-      </c>
+      <c r="C182" s="43"/>
       <c r="D182" s="46" t="s">
         <v>4</v>
       </c>
@@ -6690,12 +6781,12 @@
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A188" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B188" s="157"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" s="153" t="s">
         <v>5</v>
@@ -6704,7 +6795,7 @@
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
       <c r="A189" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B189" s="149"/>
       <c r="C189" s="63">
@@ -6724,7 +6815,7 @@
     </row>
     <row r="191" spans="1:5" ht="18" customHeight="1">
       <c r="A191" s="155" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B191" s="156"/>
       <c r="C191" s="156"/>
@@ -6736,7 +6827,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B192" s="19" t="s">
         <v>8</v>
@@ -6746,7 +6837,7 @@
       </c>
       <c r="D192" s="151"/>
       <c r="E192" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="193" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -6754,9 +6845,7 @@
         <v>1</v>
       </c>
       <c r="B193" s="42"/>
-      <c r="C193" s="43">
-        <v>60</v>
-      </c>
+      <c r="C193" s="43"/>
       <c r="D193" s="46" t="s">
         <v>4</v>
       </c>
@@ -6819,12 +6908,12 @@
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A199" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B199" s="157"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D199" s="153" t="s">
         <v>5</v>
@@ -6833,7 +6922,7 @@
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A200" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B200" s="149"/>
       <c r="C200" s="63">
@@ -6853,7 +6942,7 @@
     </row>
     <row r="202" spans="1:5" ht="18" customHeight="1">
       <c r="A202" s="155" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B202" s="156"/>
       <c r="C202" s="156"/>
@@ -6865,7 +6954,7 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>8</v>
@@ -6875,7 +6964,7 @@
       </c>
       <c r="D203" s="151"/>
       <c r="E203" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -6883,9 +6972,7 @@
         <v>1</v>
       </c>
       <c r="B204" s="42"/>
-      <c r="C204" s="43">
-        <v>60</v>
-      </c>
+      <c r="C204" s="43"/>
       <c r="D204" s="46" t="s">
         <v>4</v>
       </c>
@@ -6948,12 +7035,12 @@
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A210" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B210" s="157"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D210" s="153" t="s">
         <v>5</v>
@@ -6962,7 +7049,7 @@
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
       <c r="A211" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B211" s="149"/>
       <c r="C211" s="63">
@@ -6982,7 +7069,7 @@
     </row>
     <row r="213" spans="1:5" ht="18" customHeight="1">
       <c r="A213" s="155" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B213" s="156"/>
       <c r="C213" s="156"/>
@@ -6994,7 +7081,7 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B214" s="19" t="s">
         <v>8</v>
@@ -7004,7 +7091,7 @@
       </c>
       <c r="D214" s="151"/>
       <c r="E214" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="215" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -7012,9 +7099,7 @@
         <v>1</v>
       </c>
       <c r="B215" s="42"/>
-      <c r="C215" s="43">
-        <v>60</v>
-      </c>
+      <c r="C215" s="43"/>
       <c r="D215" s="46" t="s">
         <v>4</v>
       </c>
@@ -7077,12 +7162,12 @@
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A221" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B221" s="157"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D221" s="153" t="s">
         <v>5</v>
@@ -7091,7 +7176,7 @@
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A222" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B222" s="149"/>
       <c r="C222" s="63">
@@ -7250,7 +7335,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7265,7 +7350,7 @@
   <dimension ref="A1:E223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C222" activeCellId="7" sqref="C145 C156 C167 C178 C189 C200 C211 C222"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -7279,7 +7364,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1" s="158" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="158"/>
       <c r="C1" s="158"/>
@@ -7305,7 +7390,7 @@
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="155" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B4" s="156"/>
       <c r="C4" s="156"/>
@@ -7317,7 +7402,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>8</v>
@@ -7327,7 +7412,7 @@
       </c>
       <c r="D5" s="151"/>
       <c r="E5" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -7335,10 +7420,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="C6" s="43">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>4</v>
@@ -7350,10 +7435,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C7" s="43">
-        <v>480</v>
+        <v>60</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>4</v>
@@ -7364,12 +7449,8 @@
       <c r="A8" s="46">
         <v>3</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="43">
-        <v>60</v>
-      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="46" t="s">
         <v>4</v>
       </c>
@@ -7379,16 +7460,12 @@
       <c r="A9" s="46">
         <v>4</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>15</v>
-      </c>
+      <c r="B9" s="42"/>
       <c r="C9" s="43"/>
       <c r="D9" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="42" t="s">
-        <v>37</v>
-      </c>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
       <c r="A10" s="46">
@@ -7399,9 +7476,7 @@
       <c r="D10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>38</v>
-      </c>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1" thickBot="1">
       <c r="A11" s="48">
@@ -7416,12 +7491,12 @@
     </row>
     <row r="12" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A12" s="159" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="159"/>
       <c r="C12" s="25">
         <f>ROUND((SUM(C6:C11)/60),0)</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D12" s="153" t="s">
         <v>5</v>
@@ -7430,11 +7505,11 @@
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1">
       <c r="A13" s="160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="160"/>
       <c r="C13" s="62">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D13" s="161" t="s">
         <v>5</v>
@@ -7450,7 +7525,7 @@
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
       <c r="A15" s="155" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B15" s="156"/>
       <c r="C15" s="156"/>
@@ -7462,7 +7537,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>8</v>
@@ -7472,7 +7547,7 @@
       </c>
       <c r="D16" s="151"/>
       <c r="E16" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -7543,7 +7618,7 @@
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A23" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23" s="157"/>
       <c r="C23" s="25">
@@ -7557,7 +7632,7 @@
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A24" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" s="149"/>
       <c r="C24" s="63">
@@ -7577,7 +7652,7 @@
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1">
       <c r="A26" s="155" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26" s="156"/>
       <c r="C26" s="156"/>
@@ -7589,7 +7664,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>8</v>
@@ -7599,15 +7674,19 @@
       </c>
       <c r="D27" s="151"/>
       <c r="E27" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
       <c r="A28" s="46">
         <v>1</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
+      <c r="B28" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="170">
+        <v>300</v>
+      </c>
       <c r="D28" s="46" t="s">
         <v>4</v>
       </c>
@@ -7617,8 +7696,12 @@
       <c r="A29" s="46">
         <v>2</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
+      <c r="B29" s="171" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="172">
+        <v>180</v>
+      </c>
       <c r="D29" s="46" t="s">
         <v>4</v>
       </c>
@@ -7628,8 +7711,12 @@
       <c r="A30" s="46">
         <v>3</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="171" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="172">
+        <v>120</v>
+      </c>
       <c r="D30" s="46" t="s">
         <v>4</v>
       </c>
@@ -7639,8 +7726,12 @@
       <c r="A31" s="46">
         <v>4</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="171" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="172">
+        <v>300</v>
+      </c>
       <c r="D31" s="46" t="s">
         <v>4</v>
       </c>
@@ -7650,8 +7741,12 @@
       <c r="A32" s="46">
         <v>5</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
+      <c r="B32" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="43">
+        <v>120</v>
+      </c>
       <c r="D32" s="46" t="s">
         <v>4</v>
       </c>
@@ -7661,8 +7756,12 @@
       <c r="A33" s="48">
         <v>6</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
+      <c r="B33" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="45">
+        <v>180</v>
+      </c>
       <c r="D33" s="46" t="s">
         <v>4</v>
       </c>
@@ -7670,12 +7769,12 @@
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A34" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B34" s="157"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D34" s="153" t="s">
         <v>5</v>
@@ -7684,7 +7783,7 @@
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A35" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B35" s="149"/>
       <c r="C35" s="63">
@@ -7704,7 +7803,7 @@
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1">
       <c r="A37" s="155" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B37" s="156"/>
       <c r="C37" s="156"/>
@@ -7716,7 +7815,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>8</v>
@@ -7726,15 +7825,19 @@
       </c>
       <c r="D38" s="151"/>
       <c r="E38" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
       <c r="A39" s="46">
         <v>1</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
+      <c r="B39" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="43">
+        <v>800</v>
+      </c>
       <c r="D39" s="46" t="s">
         <v>4</v>
       </c>
@@ -7797,12 +7900,12 @@
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A45" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B45" s="157"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D45" s="153" t="s">
         <v>5</v>
@@ -7811,7 +7914,7 @@
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A46" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B46" s="149"/>
       <c r="C46" s="63">
@@ -7831,7 +7934,7 @@
     </row>
     <row r="48" spans="1:5" ht="18" customHeight="1">
       <c r="A48" s="155" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B48" s="156"/>
       <c r="C48" s="156"/>
@@ -7843,7 +7946,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>8</v>
@@ -7853,15 +7956,19 @@
       </c>
       <c r="D49" s="151"/>
       <c r="E49" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
       <c r="A50" s="46">
         <v>1</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
+      <c r="B50" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="43">
+        <v>1000</v>
+      </c>
       <c r="D50" s="46" t="s">
         <v>4</v>
       </c>
@@ -7871,8 +7978,12 @@
       <c r="A51" s="46">
         <v>2</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="43"/>
+      <c r="B51" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="43">
+        <v>180</v>
+      </c>
       <c r="D51" s="46" t="s">
         <v>4</v>
       </c>
@@ -7882,8 +7993,12 @@
       <c r="A52" s="46">
         <v>3</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="43"/>
+      <c r="B52" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="43">
+        <v>300</v>
+      </c>
       <c r="D52" s="46" t="s">
         <v>4</v>
       </c>
@@ -7893,8 +8008,12 @@
       <c r="A53" s="46">
         <v>4</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="43"/>
+      <c r="B53" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="43">
+        <v>240</v>
+      </c>
       <c r="D53" s="46" t="s">
         <v>4</v>
       </c>
@@ -7924,12 +8043,12 @@
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A56" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B56" s="157"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D56" s="153" t="s">
         <v>5</v>
@@ -7938,7 +8057,7 @@
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A57" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B57" s="149"/>
       <c r="C57" s="63">
@@ -7958,19 +8077,19 @@
     </row>
     <row r="59" spans="1:5" ht="18" customHeight="1">
       <c r="A59" s="155" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B59" s="156"/>
       <c r="C59" s="156"/>
       <c r="D59" s="156"/>
       <c r="E59" s="34" t="str">
         <f>'dynamische Daten'!$B$7</f>
-        <v>29.06 - 05.06.2015</v>
+        <v>29.06 - 05.07.2015</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>8</v>
@@ -7980,15 +8099,19 @@
       </c>
       <c r="D60" s="151"/>
       <c r="E60" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
       <c r="A61" s="46">
         <v>1</v>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="43"/>
+      <c r="B61" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="43">
+        <v>800</v>
+      </c>
       <c r="D61" s="46" t="s">
         <v>4</v>
       </c>
@@ -8051,12 +8174,12 @@
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A67" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B67" s="157"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D67" s="153" t="s">
         <v>5</v>
@@ -8065,7 +8188,7 @@
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A68" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B68" s="149"/>
       <c r="C68" s="63">
@@ -8085,7 +8208,7 @@
     </row>
     <row r="70" spans="1:5" ht="18" customHeight="1">
       <c r="A70" s="155" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B70" s="156"/>
       <c r="C70" s="156"/>
@@ -8097,7 +8220,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>8</v>
@@ -8107,7 +8230,7 @@
       </c>
       <c r="D71" s="151"/>
       <c r="E71" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -8178,7 +8301,7 @@
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A78" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B78" s="157"/>
       <c r="C78" s="25">
@@ -8192,7 +8315,7 @@
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A79" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B79" s="149"/>
       <c r="C79" s="63">
@@ -8212,7 +8335,7 @@
     </row>
     <row r="81" spans="1:5" ht="18" customHeight="1">
       <c r="A81" s="155" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B81" s="156"/>
       <c r="C81" s="156"/>
@@ -8224,7 +8347,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>8</v>
@@ -8234,7 +8357,7 @@
       </c>
       <c r="D82" s="151"/>
       <c r="E82" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -8305,7 +8428,7 @@
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A89" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B89" s="157"/>
       <c r="C89" s="25">
@@ -8319,7 +8442,7 @@
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A90" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B90" s="149"/>
       <c r="C90" s="63">
@@ -8339,7 +8462,7 @@
     </row>
     <row r="92" spans="1:5" ht="18" customHeight="1">
       <c r="A92" s="155" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B92" s="156"/>
       <c r="C92" s="156"/>
@@ -8351,7 +8474,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>8</v>
@@ -8361,7 +8484,7 @@
       </c>
       <c r="D93" s="151"/>
       <c r="E93" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -8432,7 +8555,7 @@
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A100" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B100" s="157"/>
       <c r="C100" s="25">
@@ -8446,7 +8569,7 @@
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A101" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B101" s="149"/>
       <c r="C101" s="63">
@@ -8466,7 +8589,7 @@
     </row>
     <row r="103" spans="1:5" ht="18" customHeight="1">
       <c r="A103" s="155" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B103" s="156"/>
       <c r="C103" s="156"/>
@@ -8478,7 +8601,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>8</v>
@@ -8488,7 +8611,7 @@
       </c>
       <c r="D104" s="151"/>
       <c r="E104" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -8559,7 +8682,7 @@
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A111" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B111" s="157"/>
       <c r="C111" s="25">
@@ -8573,7 +8696,7 @@
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A112" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B112" s="149"/>
       <c r="C112" s="63">
@@ -8593,7 +8716,7 @@
     </row>
     <row r="114" spans="1:5" ht="18" customHeight="1">
       <c r="A114" s="155" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B114" s="156"/>
       <c r="C114" s="156"/>
@@ -8605,7 +8728,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B115" s="19" t="s">
         <v>8</v>
@@ -8615,7 +8738,7 @@
       </c>
       <c r="D115" s="151"/>
       <c r="E115" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -8686,7 +8809,7 @@
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A122" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B122" s="157"/>
       <c r="C122" s="25">
@@ -8700,7 +8823,7 @@
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A123" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B123" s="149"/>
       <c r="C123" s="63">
@@ -8720,7 +8843,7 @@
     </row>
     <row r="125" spans="1:5" ht="18" customHeight="1">
       <c r="A125" s="155" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B125" s="156"/>
       <c r="C125" s="156"/>
@@ -8732,7 +8855,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>8</v>
@@ -8742,7 +8865,7 @@
       </c>
       <c r="D126" s="151"/>
       <c r="E126" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -8813,7 +8936,7 @@
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A133" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B133" s="157"/>
       <c r="C133" s="25">
@@ -8827,7 +8950,7 @@
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A134" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B134" s="149"/>
       <c r="C134" s="63">
@@ -8847,7 +8970,7 @@
     </row>
     <row r="136" spans="1:5" ht="18" customHeight="1">
       <c r="A136" s="155" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B136" s="156"/>
       <c r="C136" s="156"/>
@@ -8859,7 +8982,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>8</v>
@@ -8869,7 +8992,7 @@
       </c>
       <c r="D137" s="151"/>
       <c r="E137" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -8940,7 +9063,7 @@
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A144" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B144" s="157"/>
       <c r="C144" s="25">
@@ -8954,7 +9077,7 @@
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A145" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B145" s="149"/>
       <c r="C145" s="63">
@@ -8974,7 +9097,7 @@
     </row>
     <row r="147" spans="1:5" ht="18" customHeight="1">
       <c r="A147" s="155" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B147" s="156"/>
       <c r="C147" s="156"/>
@@ -8986,7 +9109,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>8</v>
@@ -8996,7 +9119,7 @@
       </c>
       <c r="D148" s="151"/>
       <c r="E148" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -9067,7 +9190,7 @@
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A155" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B155" s="157"/>
       <c r="C155" s="25">
@@ -9081,7 +9204,7 @@
     </row>
     <row r="156" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A156" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B156" s="149"/>
       <c r="C156" s="63">
@@ -9101,7 +9224,7 @@
     </row>
     <row r="158" spans="1:5" ht="18" customHeight="1">
       <c r="A158" s="155" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B158" s="156"/>
       <c r="C158" s="156"/>
@@ -9113,7 +9236,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>8</v>
@@ -9123,7 +9246,7 @@
       </c>
       <c r="D159" s="151"/>
       <c r="E159" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -9194,7 +9317,7 @@
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A166" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B166" s="157"/>
       <c r="C166" s="25">
@@ -9208,7 +9331,7 @@
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A167" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B167" s="149"/>
       <c r="C167" s="63">
@@ -9228,7 +9351,7 @@
     </row>
     <row r="169" spans="1:5" ht="18" customHeight="1">
       <c r="A169" s="155" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B169" s="156"/>
       <c r="C169" s="156"/>
@@ -9240,7 +9363,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B170" s="19" t="s">
         <v>8</v>
@@ -9250,7 +9373,7 @@
       </c>
       <c r="D170" s="151"/>
       <c r="E170" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -9321,7 +9444,7 @@
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A177" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B177" s="157"/>
       <c r="C177" s="25">
@@ -9335,7 +9458,7 @@
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A178" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B178" s="149"/>
       <c r="C178" s="63">
@@ -9355,7 +9478,7 @@
     </row>
     <row r="180" spans="1:5" ht="18" customHeight="1">
       <c r="A180" s="155" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B180" s="156"/>
       <c r="C180" s="156"/>
@@ -9367,7 +9490,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B181" s="19" t="s">
         <v>8</v>
@@ -9377,7 +9500,7 @@
       </c>
       <c r="D181" s="151"/>
       <c r="E181" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -9448,7 +9571,7 @@
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A188" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B188" s="157"/>
       <c r="C188" s="25">
@@ -9462,7 +9585,7 @@
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
       <c r="A189" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B189" s="149"/>
       <c r="C189" s="63">
@@ -9482,7 +9605,7 @@
     </row>
     <row r="191" spans="1:5" ht="18" customHeight="1">
       <c r="A191" s="155" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B191" s="156"/>
       <c r="C191" s="156"/>
@@ -9494,7 +9617,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B192" s="19" t="s">
         <v>8</v>
@@ -9504,7 +9627,7 @@
       </c>
       <c r="D192" s="151"/>
       <c r="E192" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="193" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -9575,7 +9698,7 @@
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A199" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B199" s="157"/>
       <c r="C199" s="25">
@@ -9589,7 +9712,7 @@
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A200" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B200" s="149"/>
       <c r="C200" s="63">
@@ -9609,7 +9732,7 @@
     </row>
     <row r="202" spans="1:5" ht="18" customHeight="1">
       <c r="A202" s="155" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B202" s="156"/>
       <c r="C202" s="156"/>
@@ -9621,7 +9744,7 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>8</v>
@@ -9631,7 +9754,7 @@
       </c>
       <c r="D203" s="151"/>
       <c r="E203" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -9702,7 +9825,7 @@
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A210" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B210" s="157"/>
       <c r="C210" s="25">
@@ -9716,7 +9839,7 @@
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
       <c r="A211" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B211" s="149"/>
       <c r="C211" s="63">
@@ -9736,7 +9859,7 @@
     </row>
     <row r="213" spans="1:5" ht="18" customHeight="1">
       <c r="A213" s="155" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B213" s="156"/>
       <c r="C213" s="156"/>
@@ -9748,7 +9871,7 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B214" s="19" t="s">
         <v>8</v>
@@ -9758,7 +9881,7 @@
       </c>
       <c r="D214" s="151"/>
       <c r="E214" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="215" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -9829,7 +9952,7 @@
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A221" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B221" s="157"/>
       <c r="C221" s="25">
@@ -9843,7 +9966,7 @@
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A222" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B222" s="149"/>
       <c r="C222" s="63">
@@ -10002,7 +10125,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -10031,7 +10154,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1" s="158" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="158"/>
       <c r="C1" s="158"/>
@@ -10057,7 +10180,7 @@
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="155" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B4" s="156"/>
       <c r="C4" s="156"/>
@@ -10069,7 +10192,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>8</v>
@@ -10079,7 +10202,7 @@
       </c>
       <c r="D5" s="151"/>
       <c r="E5" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -10150,7 +10273,7 @@
     </row>
     <row r="12" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A12" s="159" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="159"/>
       <c r="C12" s="25">
@@ -10164,7 +10287,7 @@
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1">
       <c r="A13" s="160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="160"/>
       <c r="C13" s="62">
@@ -10184,7 +10307,7 @@
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
       <c r="A15" s="155" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B15" s="156"/>
       <c r="C15" s="156"/>
@@ -10196,7 +10319,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>8</v>
@@ -10206,7 +10329,7 @@
       </c>
       <c r="D16" s="151"/>
       <c r="E16" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -10277,7 +10400,7 @@
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A23" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23" s="157"/>
       <c r="C23" s="25">
@@ -10291,7 +10414,7 @@
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A24" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" s="149"/>
       <c r="C24" s="63">
@@ -10311,7 +10434,7 @@
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1">
       <c r="A26" s="155" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B26" s="156"/>
       <c r="C26" s="156"/>
@@ -10323,7 +10446,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>8</v>
@@ -10333,7 +10456,7 @@
       </c>
       <c r="D27" s="151"/>
       <c r="E27" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -10404,7 +10527,7 @@
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A34" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B34" s="157"/>
       <c r="C34" s="25">
@@ -10418,7 +10541,7 @@
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A35" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B35" s="149"/>
       <c r="C35" s="63">
@@ -10438,7 +10561,7 @@
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1">
       <c r="A37" s="155" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B37" s="156"/>
       <c r="C37" s="156"/>
@@ -10450,7 +10573,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>8</v>
@@ -10460,7 +10583,7 @@
       </c>
       <c r="D38" s="151"/>
       <c r="E38" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -10531,7 +10654,7 @@
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A45" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B45" s="157"/>
       <c r="C45" s="25">
@@ -10545,7 +10668,7 @@
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A46" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B46" s="149"/>
       <c r="C46" s="63">
@@ -10565,7 +10688,7 @@
     </row>
     <row r="48" spans="1:5" ht="18" customHeight="1">
       <c r="A48" s="155" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B48" s="156"/>
       <c r="C48" s="156"/>
@@ -10577,7 +10700,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>8</v>
@@ -10587,7 +10710,7 @@
       </c>
       <c r="D49" s="151"/>
       <c r="E49" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -10658,7 +10781,7 @@
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A56" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B56" s="157"/>
       <c r="C56" s="25">
@@ -10672,7 +10795,7 @@
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A57" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B57" s="149"/>
       <c r="C57" s="63">
@@ -10692,19 +10815,19 @@
     </row>
     <row r="59" spans="1:5" ht="18" customHeight="1">
       <c r="A59" s="155" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B59" s="156"/>
       <c r="C59" s="156"/>
       <c r="D59" s="156"/>
       <c r="E59" s="34" t="str">
         <f>'dynamische Daten'!$B$7</f>
-        <v>29.06 - 05.06.2015</v>
+        <v>29.06 - 05.07.2015</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>8</v>
@@ -10714,7 +10837,7 @@
       </c>
       <c r="D60" s="151"/>
       <c r="E60" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -10785,7 +10908,7 @@
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A67" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B67" s="157"/>
       <c r="C67" s="25">
@@ -10799,7 +10922,7 @@
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A68" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B68" s="149"/>
       <c r="C68" s="63">
@@ -10819,7 +10942,7 @@
     </row>
     <row r="70" spans="1:5" ht="18" customHeight="1">
       <c r="A70" s="155" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B70" s="156"/>
       <c r="C70" s="156"/>
@@ -10831,7 +10954,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>8</v>
@@ -10841,7 +10964,7 @@
       </c>
       <c r="D71" s="151"/>
       <c r="E71" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -10912,7 +11035,7 @@
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A78" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B78" s="157"/>
       <c r="C78" s="25">
@@ -10926,7 +11049,7 @@
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A79" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B79" s="149"/>
       <c r="C79" s="63">
@@ -10946,7 +11069,7 @@
     </row>
     <row r="81" spans="1:5" ht="18" customHeight="1">
       <c r="A81" s="155" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B81" s="156"/>
       <c r="C81" s="156"/>
@@ -10958,7 +11081,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>8</v>
@@ -10968,7 +11091,7 @@
       </c>
       <c r="D82" s="151"/>
       <c r="E82" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -11039,7 +11162,7 @@
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A89" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B89" s="157"/>
       <c r="C89" s="25">
@@ -11053,7 +11176,7 @@
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A90" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B90" s="149"/>
       <c r="C90" s="63">
@@ -11073,7 +11196,7 @@
     </row>
     <row r="92" spans="1:5" ht="18" customHeight="1">
       <c r="A92" s="155" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B92" s="156"/>
       <c r="C92" s="156"/>
@@ -11085,7 +11208,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>8</v>
@@ -11095,7 +11218,7 @@
       </c>
       <c r="D93" s="151"/>
       <c r="E93" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -11166,7 +11289,7 @@
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A100" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B100" s="157"/>
       <c r="C100" s="25">
@@ -11180,7 +11303,7 @@
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A101" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B101" s="149"/>
       <c r="C101" s="63">
@@ -11200,7 +11323,7 @@
     </row>
     <row r="103" spans="1:5" ht="18" customHeight="1">
       <c r="A103" s="155" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B103" s="156"/>
       <c r="C103" s="156"/>
@@ -11212,7 +11335,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>8</v>
@@ -11222,7 +11345,7 @@
       </c>
       <c r="D104" s="151"/>
       <c r="E104" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -11293,7 +11416,7 @@
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A111" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B111" s="157"/>
       <c r="C111" s="25">
@@ -11307,7 +11430,7 @@
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A112" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B112" s="149"/>
       <c r="C112" s="63">
@@ -11327,7 +11450,7 @@
     </row>
     <row r="114" spans="1:5" ht="18" customHeight="1">
       <c r="A114" s="155" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B114" s="156"/>
       <c r="C114" s="156"/>
@@ -11339,7 +11462,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B115" s="19" t="s">
         <v>8</v>
@@ -11349,7 +11472,7 @@
       </c>
       <c r="D115" s="151"/>
       <c r="E115" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -11420,7 +11543,7 @@
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A122" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B122" s="157"/>
       <c r="C122" s="25">
@@ -11434,7 +11557,7 @@
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A123" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B123" s="149"/>
       <c r="C123" s="63">
@@ -11454,7 +11577,7 @@
     </row>
     <row r="125" spans="1:5" ht="18" customHeight="1">
       <c r="A125" s="155" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B125" s="156"/>
       <c r="C125" s="156"/>
@@ -11466,7 +11589,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>8</v>
@@ -11476,7 +11599,7 @@
       </c>
       <c r="D126" s="151"/>
       <c r="E126" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -11547,7 +11670,7 @@
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A133" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B133" s="157"/>
       <c r="C133" s="25">
@@ -11561,7 +11684,7 @@
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A134" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B134" s="149"/>
       <c r="C134" s="63">
@@ -11581,7 +11704,7 @@
     </row>
     <row r="136" spans="1:5" ht="18" customHeight="1">
       <c r="A136" s="155" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B136" s="156"/>
       <c r="C136" s="156"/>
@@ -11593,7 +11716,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>8</v>
@@ -11603,7 +11726,7 @@
       </c>
       <c r="D137" s="151"/>
       <c r="E137" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -11674,7 +11797,7 @@
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A144" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B144" s="157"/>
       <c r="C144" s="25">
@@ -11688,7 +11811,7 @@
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A145" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B145" s="149"/>
       <c r="C145" s="63">
@@ -11708,7 +11831,7 @@
     </row>
     <row r="147" spans="1:5" ht="18" customHeight="1">
       <c r="A147" s="155" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B147" s="156"/>
       <c r="C147" s="156"/>
@@ -11720,7 +11843,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>8</v>
@@ -11730,7 +11853,7 @@
       </c>
       <c r="D148" s="151"/>
       <c r="E148" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -11801,7 +11924,7 @@
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A155" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B155" s="157"/>
       <c r="C155" s="25">
@@ -11815,7 +11938,7 @@
     </row>
     <row r="156" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A156" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B156" s="149"/>
       <c r="C156" s="63">
@@ -11835,7 +11958,7 @@
     </row>
     <row r="158" spans="1:5" ht="18" customHeight="1">
       <c r="A158" s="155" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B158" s="156"/>
       <c r="C158" s="156"/>
@@ -11847,7 +11970,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>8</v>
@@ -11857,7 +11980,7 @@
       </c>
       <c r="D159" s="151"/>
       <c r="E159" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -11928,7 +12051,7 @@
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A166" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B166" s="157"/>
       <c r="C166" s="25">
@@ -11942,7 +12065,7 @@
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A167" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B167" s="149"/>
       <c r="C167" s="63">
@@ -11962,7 +12085,7 @@
     </row>
     <row r="169" spans="1:5" ht="18" customHeight="1">
       <c r="A169" s="155" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B169" s="156"/>
       <c r="C169" s="156"/>
@@ -11974,7 +12097,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B170" s="19" t="s">
         <v>8</v>
@@ -11984,7 +12107,7 @@
       </c>
       <c r="D170" s="151"/>
       <c r="E170" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -12055,7 +12178,7 @@
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A177" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B177" s="157"/>
       <c r="C177" s="25">
@@ -12069,7 +12192,7 @@
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A178" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B178" s="149"/>
       <c r="C178" s="63">
@@ -12089,7 +12212,7 @@
     </row>
     <row r="180" spans="1:5" ht="18" customHeight="1">
       <c r="A180" s="155" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B180" s="156"/>
       <c r="C180" s="156"/>
@@ -12101,7 +12224,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B181" s="19" t="s">
         <v>8</v>
@@ -12111,7 +12234,7 @@
       </c>
       <c r="D181" s="151"/>
       <c r="E181" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -12182,7 +12305,7 @@
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A188" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B188" s="157"/>
       <c r="C188" s="25">
@@ -12196,7 +12319,7 @@
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
       <c r="A189" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B189" s="149"/>
       <c r="C189" s="63">
@@ -12216,7 +12339,7 @@
     </row>
     <row r="191" spans="1:5" ht="18" customHeight="1">
       <c r="A191" s="155" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B191" s="156"/>
       <c r="C191" s="156"/>
@@ -12228,7 +12351,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B192" s="19" t="s">
         <v>8</v>
@@ -12238,7 +12361,7 @@
       </c>
       <c r="D192" s="151"/>
       <c r="E192" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="193" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -12309,7 +12432,7 @@
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A199" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B199" s="157"/>
       <c r="C199" s="25">
@@ -12323,7 +12446,7 @@
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A200" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B200" s="149"/>
       <c r="C200" s="63">
@@ -12343,7 +12466,7 @@
     </row>
     <row r="202" spans="1:5" ht="18" customHeight="1">
       <c r="A202" s="155" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B202" s="156"/>
       <c r="C202" s="156"/>
@@ -12355,7 +12478,7 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>8</v>
@@ -12365,7 +12488,7 @@
       </c>
       <c r="D203" s="151"/>
       <c r="E203" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -12436,7 +12559,7 @@
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A210" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B210" s="157"/>
       <c r="C210" s="25">
@@ -12450,7 +12573,7 @@
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
       <c r="A211" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B211" s="149"/>
       <c r="C211" s="63">
@@ -12470,7 +12593,7 @@
     </row>
     <row r="213" spans="1:5" ht="18" customHeight="1">
       <c r="A213" s="155" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B213" s="156"/>
       <c r="C213" s="156"/>
@@ -12482,7 +12605,7 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B214" s="19" t="s">
         <v>8</v>
@@ -12492,7 +12615,7 @@
       </c>
       <c r="D214" s="151"/>
       <c r="E214" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="215" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -12563,7 +12686,7 @@
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A221" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B221" s="157"/>
       <c r="C221" s="25">
@@ -12577,7 +12700,7 @@
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A222" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B222" s="149"/>
       <c r="C222" s="63">
@@ -12765,7 +12888,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1" s="158" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="158"/>
       <c r="C1" s="158"/>
@@ -12791,7 +12914,7 @@
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="155" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B4" s="156"/>
       <c r="C4" s="156"/>
@@ -12803,7 +12926,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>8</v>
@@ -12813,7 +12936,7 @@
       </c>
       <c r="D5" s="151"/>
       <c r="E5" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -12884,7 +13007,7 @@
     </row>
     <row r="12" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A12" s="159" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="159"/>
       <c r="C12" s="25">
@@ -12898,7 +13021,7 @@
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1">
       <c r="A13" s="160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="160"/>
       <c r="C13" s="62">
@@ -12918,7 +13041,7 @@
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
       <c r="A15" s="155" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B15" s="156"/>
       <c r="C15" s="156"/>
@@ -12930,7 +13053,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>8</v>
@@ -12940,7 +13063,7 @@
       </c>
       <c r="D16" s="151"/>
       <c r="E16" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -13011,7 +13134,7 @@
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A23" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23" s="157"/>
       <c r="C23" s="25">
@@ -13025,7 +13148,7 @@
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A24" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" s="149"/>
       <c r="C24" s="63">
@@ -13045,7 +13168,7 @@
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1">
       <c r="A26" s="155" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B26" s="156"/>
       <c r="C26" s="156"/>
@@ -13057,7 +13180,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>8</v>
@@ -13067,7 +13190,7 @@
       </c>
       <c r="D27" s="151"/>
       <c r="E27" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -13138,7 +13261,7 @@
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A34" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B34" s="157"/>
       <c r="C34" s="25">
@@ -13152,7 +13275,7 @@
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A35" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B35" s="149"/>
       <c r="C35" s="63">
@@ -13172,7 +13295,7 @@
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1">
       <c r="A37" s="155" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B37" s="156"/>
       <c r="C37" s="156"/>
@@ -13184,7 +13307,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>8</v>
@@ -13194,7 +13317,7 @@
       </c>
       <c r="D38" s="151"/>
       <c r="E38" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -13265,7 +13388,7 @@
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A45" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B45" s="157"/>
       <c r="C45" s="25">
@@ -13279,7 +13402,7 @@
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A46" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B46" s="149"/>
       <c r="C46" s="63">
@@ -13299,7 +13422,7 @@
     </row>
     <row r="48" spans="1:5" ht="18" customHeight="1">
       <c r="A48" s="155" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B48" s="156"/>
       <c r="C48" s="156"/>
@@ -13311,7 +13434,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>8</v>
@@ -13321,7 +13444,7 @@
       </c>
       <c r="D49" s="151"/>
       <c r="E49" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -13392,7 +13515,7 @@
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A56" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B56" s="157"/>
       <c r="C56" s="25">
@@ -13406,7 +13529,7 @@
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A57" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B57" s="149"/>
       <c r="C57" s="63">
@@ -13426,19 +13549,19 @@
     </row>
     <row r="59" spans="1:5" ht="18" customHeight="1">
       <c r="A59" s="155" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B59" s="156"/>
       <c r="C59" s="156"/>
       <c r="D59" s="156"/>
       <c r="E59" s="34" t="str">
         <f>'dynamische Daten'!$B$7</f>
-        <v>29.06 - 05.06.2015</v>
+        <v>29.06 - 05.07.2015</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>8</v>
@@ -13448,7 +13571,7 @@
       </c>
       <c r="D60" s="151"/>
       <c r="E60" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -13519,7 +13642,7 @@
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A67" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B67" s="157"/>
       <c r="C67" s="25">
@@ -13533,7 +13656,7 @@
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A68" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B68" s="149"/>
       <c r="C68" s="63">
@@ -13553,7 +13676,7 @@
     </row>
     <row r="70" spans="1:5" ht="18" customHeight="1">
       <c r="A70" s="155" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B70" s="156"/>
       <c r="C70" s="156"/>
@@ -13565,7 +13688,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>8</v>
@@ -13575,7 +13698,7 @@
       </c>
       <c r="D71" s="151"/>
       <c r="E71" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -13646,7 +13769,7 @@
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A78" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B78" s="157"/>
       <c r="C78" s="25">
@@ -13660,7 +13783,7 @@
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A79" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B79" s="149"/>
       <c r="C79" s="63">
@@ -13680,7 +13803,7 @@
     </row>
     <row r="81" spans="1:5" ht="18" customHeight="1">
       <c r="A81" s="155" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B81" s="156"/>
       <c r="C81" s="156"/>
@@ -13692,7 +13815,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>8</v>
@@ -13702,7 +13825,7 @@
       </c>
       <c r="D82" s="151"/>
       <c r="E82" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -13773,7 +13896,7 @@
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A89" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B89" s="157"/>
       <c r="C89" s="25">
@@ -13787,7 +13910,7 @@
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A90" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B90" s="149"/>
       <c r="C90" s="63">
@@ -13807,7 +13930,7 @@
     </row>
     <row r="92" spans="1:5" ht="18" customHeight="1">
       <c r="A92" s="155" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B92" s="156"/>
       <c r="C92" s="156"/>
@@ -13819,7 +13942,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>8</v>
@@ -13829,7 +13952,7 @@
       </c>
       <c r="D93" s="151"/>
       <c r="E93" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -13900,7 +14023,7 @@
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A100" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B100" s="157"/>
       <c r="C100" s="25">
@@ -13914,7 +14037,7 @@
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A101" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B101" s="149"/>
       <c r="C101" s="63">
@@ -13934,7 +14057,7 @@
     </row>
     <row r="103" spans="1:5" ht="18" customHeight="1">
       <c r="A103" s="155" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B103" s="156"/>
       <c r="C103" s="156"/>
@@ -13946,7 +14069,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>8</v>
@@ -13956,7 +14079,7 @@
       </c>
       <c r="D104" s="151"/>
       <c r="E104" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -14027,7 +14150,7 @@
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A111" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B111" s="157"/>
       <c r="C111" s="25">
@@ -14041,7 +14164,7 @@
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A112" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B112" s="149"/>
       <c r="C112" s="63">
@@ -14061,7 +14184,7 @@
     </row>
     <row r="114" spans="1:5" ht="18" customHeight="1">
       <c r="A114" s="155" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B114" s="156"/>
       <c r="C114" s="156"/>
@@ -14073,7 +14196,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B115" s="19" t="s">
         <v>8</v>
@@ -14083,7 +14206,7 @@
       </c>
       <c r="D115" s="151"/>
       <c r="E115" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -14154,7 +14277,7 @@
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A122" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B122" s="157"/>
       <c r="C122" s="25">
@@ -14168,7 +14291,7 @@
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A123" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B123" s="149"/>
       <c r="C123" s="63">
@@ -14188,7 +14311,7 @@
     </row>
     <row r="125" spans="1:5" ht="18" customHeight="1">
       <c r="A125" s="155" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B125" s="156"/>
       <c r="C125" s="156"/>
@@ -14200,7 +14323,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>8</v>
@@ -14210,7 +14333,7 @@
       </c>
       <c r="D126" s="151"/>
       <c r="E126" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -14281,7 +14404,7 @@
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A133" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B133" s="157"/>
       <c r="C133" s="25">
@@ -14295,7 +14418,7 @@
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A134" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B134" s="149"/>
       <c r="C134" s="63">
@@ -14315,7 +14438,7 @@
     </row>
     <row r="136" spans="1:5" ht="18" customHeight="1">
       <c r="A136" s="155" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B136" s="156"/>
       <c r="C136" s="156"/>
@@ -14327,7 +14450,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>8</v>
@@ -14337,7 +14460,7 @@
       </c>
       <c r="D137" s="151"/>
       <c r="E137" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -14408,7 +14531,7 @@
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A144" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B144" s="157"/>
       <c r="C144" s="25">
@@ -14422,7 +14545,7 @@
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A145" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B145" s="149"/>
       <c r="C145" s="63">
@@ -14442,7 +14565,7 @@
     </row>
     <row r="147" spans="1:5" ht="18" customHeight="1">
       <c r="A147" s="155" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B147" s="156"/>
       <c r="C147" s="156"/>
@@ -14454,7 +14577,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>8</v>
@@ -14464,7 +14587,7 @@
       </c>
       <c r="D148" s="151"/>
       <c r="E148" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -14535,7 +14658,7 @@
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A155" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B155" s="157"/>
       <c r="C155" s="25">
@@ -14549,7 +14672,7 @@
     </row>
     <row r="156" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A156" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B156" s="149"/>
       <c r="C156" s="63">
@@ -14569,7 +14692,7 @@
     </row>
     <row r="158" spans="1:5" ht="18" customHeight="1">
       <c r="A158" s="155" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B158" s="156"/>
       <c r="C158" s="156"/>
@@ -14581,7 +14704,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>8</v>
@@ -14591,7 +14714,7 @@
       </c>
       <c r="D159" s="151"/>
       <c r="E159" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -14662,7 +14785,7 @@
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A166" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B166" s="157"/>
       <c r="C166" s="25">
@@ -14676,7 +14799,7 @@
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A167" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B167" s="149"/>
       <c r="C167" s="63">
@@ -14696,7 +14819,7 @@
     </row>
     <row r="169" spans="1:5" ht="18" customHeight="1">
       <c r="A169" s="155" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B169" s="156"/>
       <c r="C169" s="156"/>
@@ -14708,7 +14831,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B170" s="19" t="s">
         <v>8</v>
@@ -14718,7 +14841,7 @@
       </c>
       <c r="D170" s="151"/>
       <c r="E170" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -14789,7 +14912,7 @@
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A177" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B177" s="157"/>
       <c r="C177" s="25">
@@ -14803,7 +14926,7 @@
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A178" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B178" s="149"/>
       <c r="C178" s="63">
@@ -14823,7 +14946,7 @@
     </row>
     <row r="180" spans="1:5" ht="18" customHeight="1">
       <c r="A180" s="155" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B180" s="156"/>
       <c r="C180" s="156"/>
@@ -14835,7 +14958,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B181" s="19" t="s">
         <v>8</v>
@@ -14845,7 +14968,7 @@
       </c>
       <c r="D181" s="151"/>
       <c r="E181" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -14916,7 +15039,7 @@
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A188" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B188" s="157"/>
       <c r="C188" s="25">
@@ -14930,7 +15053,7 @@
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
       <c r="A189" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B189" s="149"/>
       <c r="C189" s="63">
@@ -14950,7 +15073,7 @@
     </row>
     <row r="191" spans="1:5" ht="18" customHeight="1">
       <c r="A191" s="155" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B191" s="156"/>
       <c r="C191" s="156"/>
@@ -14962,7 +15085,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B192" s="19" t="s">
         <v>8</v>
@@ -14972,7 +15095,7 @@
       </c>
       <c r="D192" s="151"/>
       <c r="E192" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="193" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -15043,7 +15166,7 @@
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A199" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B199" s="157"/>
       <c r="C199" s="25">
@@ -15057,7 +15180,7 @@
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A200" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B200" s="149"/>
       <c r="C200" s="63">
@@ -15077,7 +15200,7 @@
     </row>
     <row r="202" spans="1:5" ht="18" customHeight="1">
       <c r="A202" s="155" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B202" s="156"/>
       <c r="C202" s="156"/>
@@ -15089,7 +15212,7 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>8</v>
@@ -15099,7 +15222,7 @@
       </c>
       <c r="D203" s="151"/>
       <c r="E203" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -15170,7 +15293,7 @@
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A210" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B210" s="157"/>
       <c r="C210" s="25">
@@ -15184,7 +15307,7 @@
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
       <c r="A211" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B211" s="149"/>
       <c r="C211" s="63">
@@ -15204,7 +15327,7 @@
     </row>
     <row r="213" spans="1:5" ht="18" customHeight="1">
       <c r="A213" s="155" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B213" s="156"/>
       <c r="C213" s="156"/>
@@ -15216,7 +15339,7 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B214" s="19" t="s">
         <v>8</v>
@@ -15226,7 +15349,7 @@
       </c>
       <c r="D214" s="151"/>
       <c r="E214" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="215" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -15297,7 +15420,7 @@
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A221" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B221" s="157"/>
       <c r="C221" s="25">
@@ -15311,7 +15434,7 @@
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A222" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B222" s="149"/>
       <c r="C222" s="63">
@@ -15499,7 +15622,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1" s="158" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="158"/>
       <c r="C1" s="158"/>
@@ -15525,7 +15648,7 @@
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="155" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B4" s="156"/>
       <c r="C4" s="156"/>
@@ -15537,7 +15660,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>8</v>
@@ -15547,7 +15670,7 @@
       </c>
       <c r="D5" s="151"/>
       <c r="E5" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -15618,7 +15741,7 @@
     </row>
     <row r="12" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A12" s="159" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="159"/>
       <c r="C12" s="25">
@@ -15632,7 +15755,7 @@
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1">
       <c r="A13" s="160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="160"/>
       <c r="C13" s="62">
@@ -15652,7 +15775,7 @@
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
       <c r="A15" s="155" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B15" s="156"/>
       <c r="C15" s="156"/>
@@ -15664,7 +15787,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>8</v>
@@ -15674,12 +15797,12 @@
       </c>
       <c r="D16" s="151"/>
       <c r="E16" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
       <c r="A17" s="46" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="43"/>
@@ -15745,7 +15868,7 @@
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A23" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23" s="157"/>
       <c r="C23" s="25">
@@ -15759,7 +15882,7 @@
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A24" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" s="149"/>
       <c r="C24" s="63">
@@ -15779,7 +15902,7 @@
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1">
       <c r="A26" s="155" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B26" s="156"/>
       <c r="C26" s="156"/>
@@ -15791,7 +15914,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>8</v>
@@ -15801,7 +15924,7 @@
       </c>
       <c r="D27" s="151"/>
       <c r="E27" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -15872,7 +15995,7 @@
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A34" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B34" s="157"/>
       <c r="C34" s="25">
@@ -15886,7 +16009,7 @@
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A35" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B35" s="149"/>
       <c r="C35" s="63">
@@ -15906,7 +16029,7 @@
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1">
       <c r="A37" s="155" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B37" s="156"/>
       <c r="C37" s="156"/>
@@ -15918,7 +16041,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>8</v>
@@ -15928,7 +16051,7 @@
       </c>
       <c r="D38" s="151"/>
       <c r="E38" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -15999,7 +16122,7 @@
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A45" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B45" s="157"/>
       <c r="C45" s="25">
@@ -16013,7 +16136,7 @@
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A46" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B46" s="149"/>
       <c r="C46" s="63">
@@ -16033,7 +16156,7 @@
     </row>
     <row r="48" spans="1:5" ht="18" customHeight="1">
       <c r="A48" s="155" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B48" s="156"/>
       <c r="C48" s="156"/>
@@ -16045,7 +16168,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>8</v>
@@ -16055,7 +16178,7 @@
       </c>
       <c r="D49" s="151"/>
       <c r="E49" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -16126,7 +16249,7 @@
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A56" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B56" s="157"/>
       <c r="C56" s="25">
@@ -16140,7 +16263,7 @@
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A57" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B57" s="149"/>
       <c r="C57" s="63">
@@ -16160,19 +16283,19 @@
     </row>
     <row r="59" spans="1:5" ht="18" customHeight="1">
       <c r="A59" s="155" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B59" s="156"/>
       <c r="C59" s="156"/>
       <c r="D59" s="156"/>
       <c r="E59" s="34" t="str">
         <f>'dynamische Daten'!$B$7</f>
-        <v>29.06 - 05.06.2015</v>
+        <v>29.06 - 05.07.2015</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>8</v>
@@ -16182,7 +16305,7 @@
       </c>
       <c r="D60" s="151"/>
       <c r="E60" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -16253,7 +16376,7 @@
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A67" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B67" s="157"/>
       <c r="C67" s="25">
@@ -16267,7 +16390,7 @@
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A68" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B68" s="149"/>
       <c r="C68" s="63">
@@ -16287,7 +16410,7 @@
     </row>
     <row r="70" spans="1:5" ht="18" customHeight="1">
       <c r="A70" s="155" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B70" s="156"/>
       <c r="C70" s="156"/>
@@ -16299,7 +16422,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>8</v>
@@ -16309,7 +16432,7 @@
       </c>
       <c r="D71" s="151"/>
       <c r="E71" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -16380,7 +16503,7 @@
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A78" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B78" s="157"/>
       <c r="C78" s="25">
@@ -16394,7 +16517,7 @@
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A79" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B79" s="149"/>
       <c r="C79" s="63">
@@ -16414,7 +16537,7 @@
     </row>
     <row r="81" spans="1:5" ht="18" customHeight="1">
       <c r="A81" s="155" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B81" s="156"/>
       <c r="C81" s="156"/>
@@ -16426,7 +16549,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>8</v>
@@ -16436,7 +16559,7 @@
       </c>
       <c r="D82" s="151"/>
       <c r="E82" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -16507,7 +16630,7 @@
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A89" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B89" s="157"/>
       <c r="C89" s="25">
@@ -16521,7 +16644,7 @@
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A90" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B90" s="149"/>
       <c r="C90" s="63">
@@ -16541,7 +16664,7 @@
     </row>
     <row r="92" spans="1:5" ht="18" customHeight="1">
       <c r="A92" s="155" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B92" s="156"/>
       <c r="C92" s="156"/>
@@ -16553,7 +16676,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>8</v>
@@ -16563,7 +16686,7 @@
       </c>
       <c r="D93" s="151"/>
       <c r="E93" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -16634,7 +16757,7 @@
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A100" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B100" s="157"/>
       <c r="C100" s="25">
@@ -16648,7 +16771,7 @@
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A101" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B101" s="149"/>
       <c r="C101" s="63">
@@ -16668,7 +16791,7 @@
     </row>
     <row r="103" spans="1:5" ht="18" customHeight="1">
       <c r="A103" s="155" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B103" s="156"/>
       <c r="C103" s="156"/>
@@ -16680,7 +16803,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>8</v>
@@ -16690,7 +16813,7 @@
       </c>
       <c r="D104" s="151"/>
       <c r="E104" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -16761,7 +16884,7 @@
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A111" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B111" s="157"/>
       <c r="C111" s="25">
@@ -16775,7 +16898,7 @@
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A112" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B112" s="149"/>
       <c r="C112" s="63">
@@ -16795,7 +16918,7 @@
     </row>
     <row r="114" spans="1:5" ht="18" customHeight="1">
       <c r="A114" s="155" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B114" s="156"/>
       <c r="C114" s="156"/>
@@ -16807,7 +16930,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B115" s="19" t="s">
         <v>8</v>
@@ -16817,7 +16940,7 @@
       </c>
       <c r="D115" s="151"/>
       <c r="E115" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -16888,7 +17011,7 @@
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A122" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B122" s="157"/>
       <c r="C122" s="25">
@@ -16902,7 +17025,7 @@
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A123" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B123" s="149"/>
       <c r="C123" s="63">
@@ -16922,7 +17045,7 @@
     </row>
     <row r="125" spans="1:5" ht="18" customHeight="1">
       <c r="A125" s="155" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B125" s="156"/>
       <c r="C125" s="156"/>
@@ -16934,7 +17057,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>8</v>
@@ -16944,7 +17067,7 @@
       </c>
       <c r="D126" s="151"/>
       <c r="E126" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -17015,7 +17138,7 @@
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A133" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B133" s="157"/>
       <c r="C133" s="25">
@@ -17029,7 +17152,7 @@
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A134" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B134" s="149"/>
       <c r="C134" s="63">
@@ -17049,7 +17172,7 @@
     </row>
     <row r="136" spans="1:5" ht="18" customHeight="1">
       <c r="A136" s="155" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B136" s="156"/>
       <c r="C136" s="156"/>
@@ -17061,7 +17184,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>8</v>
@@ -17071,7 +17194,7 @@
       </c>
       <c r="D137" s="151"/>
       <c r="E137" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -17142,7 +17265,7 @@
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A144" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B144" s="157"/>
       <c r="C144" s="25">
@@ -17156,7 +17279,7 @@
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A145" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B145" s="149"/>
       <c r="C145" s="63">
@@ -17176,7 +17299,7 @@
     </row>
     <row r="147" spans="1:5" ht="18" customHeight="1">
       <c r="A147" s="155" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B147" s="156"/>
       <c r="C147" s="156"/>
@@ -17188,7 +17311,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>8</v>
@@ -17198,7 +17321,7 @@
       </c>
       <c r="D148" s="151"/>
       <c r="E148" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -17269,7 +17392,7 @@
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A155" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B155" s="157"/>
       <c r="C155" s="25">
@@ -17283,7 +17406,7 @@
     </row>
     <row r="156" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A156" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B156" s="149"/>
       <c r="C156" s="63">
@@ -17303,7 +17426,7 @@
     </row>
     <row r="158" spans="1:5" ht="18" customHeight="1">
       <c r="A158" s="155" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B158" s="156"/>
       <c r="C158" s="156"/>
@@ -17315,7 +17438,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>8</v>
@@ -17325,7 +17448,7 @@
       </c>
       <c r="D159" s="151"/>
       <c r="E159" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -17396,7 +17519,7 @@
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A166" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B166" s="157"/>
       <c r="C166" s="25">
@@ -17410,7 +17533,7 @@
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A167" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B167" s="149"/>
       <c r="C167" s="63">
@@ -17430,7 +17553,7 @@
     </row>
     <row r="169" spans="1:5" ht="18" customHeight="1">
       <c r="A169" s="155" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B169" s="156"/>
       <c r="C169" s="156"/>
@@ -17442,7 +17565,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B170" s="19" t="s">
         <v>8</v>
@@ -17452,7 +17575,7 @@
       </c>
       <c r="D170" s="151"/>
       <c r="E170" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -17523,7 +17646,7 @@
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A177" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B177" s="157"/>
       <c r="C177" s="25">
@@ -17537,7 +17660,7 @@
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A178" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B178" s="149"/>
       <c r="C178" s="63">
@@ -17557,7 +17680,7 @@
     </row>
     <row r="180" spans="1:5" ht="18" customHeight="1">
       <c r="A180" s="155" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B180" s="156"/>
       <c r="C180" s="156"/>
@@ -17569,7 +17692,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B181" s="19" t="s">
         <v>8</v>
@@ -17579,7 +17702,7 @@
       </c>
       <c r="D181" s="151"/>
       <c r="E181" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -17650,7 +17773,7 @@
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A188" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B188" s="157"/>
       <c r="C188" s="25">
@@ -17664,7 +17787,7 @@
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
       <c r="A189" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B189" s="149"/>
       <c r="C189" s="63">
@@ -17684,7 +17807,7 @@
     </row>
     <row r="191" spans="1:5" ht="18" customHeight="1">
       <c r="A191" s="155" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B191" s="156"/>
       <c r="C191" s="156"/>
@@ -17696,7 +17819,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B192" s="19" t="s">
         <v>8</v>
@@ -17706,7 +17829,7 @@
       </c>
       <c r="D192" s="151"/>
       <c r="E192" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="193" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -17777,7 +17900,7 @@
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A199" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B199" s="157"/>
       <c r="C199" s="25">
@@ -17791,7 +17914,7 @@
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A200" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B200" s="149"/>
       <c r="C200" s="63">
@@ -17811,7 +17934,7 @@
     </row>
     <row r="202" spans="1:5" ht="18" customHeight="1">
       <c r="A202" s="155" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B202" s="156"/>
       <c r="C202" s="156"/>
@@ -17823,7 +17946,7 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>8</v>
@@ -17833,7 +17956,7 @@
       </c>
       <c r="D203" s="151"/>
       <c r="E203" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -17904,7 +18027,7 @@
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A210" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B210" s="157"/>
       <c r="C210" s="25">
@@ -17918,7 +18041,7 @@
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
       <c r="A211" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B211" s="149"/>
       <c r="C211" s="63">
@@ -17938,7 +18061,7 @@
     </row>
     <row r="213" spans="1:5" ht="18" customHeight="1">
       <c r="A213" s="155" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B213" s="156"/>
       <c r="C213" s="156"/>
@@ -17950,7 +18073,7 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B214" s="19" t="s">
         <v>8</v>
@@ -17960,7 +18083,7 @@
       </c>
       <c r="D214" s="151"/>
       <c r="E214" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="215" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1">
@@ -18031,7 +18154,7 @@
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1">
       <c r="A221" s="153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B221" s="157"/>
       <c r="C221" s="25">
@@ -18045,7 +18168,7 @@
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1">
       <c r="A222" s="148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B222" s="149"/>
       <c r="C222" s="63">
@@ -18218,8 +18341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -18229,168 +18352,168 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="168" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B1" s="168"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="58" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="58" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="58" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="58" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="58" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="58" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="58" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="58" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="58" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="58" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="58" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="58" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="58" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="58" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="58" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="58" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="58" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="58" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="58" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -18399,48 +18522,48 @@
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="168" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B23" s="168"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="58" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="58" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="58" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="58" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="58" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
